--- a/biology/Botanique/Lewisia_columbiana/Lewisia_columbiana.xlsx
+++ b/biology/Botanique/Lewisia_columbiana/Lewisia_columbiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lewisia columbiana est une espèce de plante à fleurs de la famille des Portulacaceae selon la classification classique de Cronquist (1981)[1] ou des Montiaceae selon la classification phylogénique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lewisia columbiana est une espèce de plante à fleurs de la famille des Portulacaceae selon la classification classique de Cronquist (1981) ou des Montiaceae selon la classification phylogénique.
 Elle est originaire de l'ouest des États-Unis et de la Colombie-Britannique, où elle pousse dans des rocailles de montagne. C'est une plante vivace à racine pivotante courte, épaisse et unique de type caudex. Elle produit une rosette de nombreuses feuilles épaisses, charnues, lancéolées, obtuses ou pointues à bout et bords lisses, mesurant de 2 à 10 centimètres de long. Les inflorescences se composent de plusieurs tiges mesurant jusqu'à environ 30 centimètres de haut, chaque tige portant jusqu'à 100 fleurs chacune. Les fleurs ont de 4 à 11 pétales, chacun d'eux mesurant jusqu'à environ un centimètre de long de forme ovale avec une pointe crantée. Les pétales sont de couleur blanche à rose pâle, souvent avec des veines rose foncé.
 </t>
         </is>
